--- a/Crawling/crawling_data/month_genie/month_genie_20220101.xlsx
+++ b/Crawling/crawling_data/month_genie/month_genie_20220101.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="230">
   <si>
     <t>날짜</t>
   </si>
@@ -148,8 +148,7 @@
     <t>Weekend</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>매일 크리스마스 (Everyday Christmas)</t>
@@ -233,8 +232,7 @@
     <t>Still I Love You</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
@@ -595,9 +593,6 @@
   </si>
   <si>
     <t>그 해 우리는 OST Part.2</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>세 번째 '고백'</t>
@@ -1750,7 +1745,7 @@
         <v>134</v>
       </c>
       <c r="E40" t="s">
-        <v>193</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1801,7 +1796,7 @@
         <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1818,7 +1813,7 @@
         <v>133</v>
       </c>
       <c r="E44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1852,7 +1847,7 @@
         <v>109</v>
       </c>
       <c r="E46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1869,7 +1864,7 @@
         <v>138</v>
       </c>
       <c r="E47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1886,7 +1881,7 @@
         <v>139</v>
       </c>
       <c r="E48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1903,7 +1898,7 @@
         <v>140</v>
       </c>
       <c r="E49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1920,7 +1915,7 @@
         <v>141</v>
       </c>
       <c r="E50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1937,7 +1932,7 @@
         <v>133</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1954,7 +1949,7 @@
         <v>142</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1971,7 +1966,7 @@
         <v>111</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1988,7 +1983,7 @@
         <v>143</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2039,7 +2034,7 @@
         <v>108</v>
       </c>
       <c r="E57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2056,7 +2051,7 @@
         <v>114</v>
       </c>
       <c r="E58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2073,7 +2068,7 @@
         <v>139</v>
       </c>
       <c r="E59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2090,7 +2085,7 @@
         <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2158,7 +2153,7 @@
         <v>108</v>
       </c>
       <c r="E64" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2175,7 +2170,7 @@
         <v>147</v>
       </c>
       <c r="E65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2192,7 +2187,7 @@
         <v>111</v>
       </c>
       <c r="E66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2226,7 +2221,7 @@
         <v>149</v>
       </c>
       <c r="E68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2243,7 +2238,7 @@
         <v>127</v>
       </c>
       <c r="E69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2260,7 +2255,7 @@
         <v>150</v>
       </c>
       <c r="E70" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2277,7 +2272,7 @@
         <v>151</v>
       </c>
       <c r="E71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2294,7 +2289,7 @@
         <v>149</v>
       </c>
       <c r="E72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2328,7 +2323,7 @@
         <v>153</v>
       </c>
       <c r="E74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2362,7 +2357,7 @@
         <v>154</v>
       </c>
       <c r="E76" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2396,7 +2391,7 @@
         <v>156</v>
       </c>
       <c r="E78" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2413,7 +2408,7 @@
         <v>157</v>
       </c>
       <c r="E79" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2430,7 +2425,7 @@
         <v>108</v>
       </c>
       <c r="E80" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2447,7 +2442,7 @@
         <v>158</v>
       </c>
       <c r="E81" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2515,7 +2510,7 @@
         <v>162</v>
       </c>
       <c r="E85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2566,7 +2561,7 @@
         <v>153</v>
       </c>
       <c r="E88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2617,7 +2612,7 @@
         <v>166</v>
       </c>
       <c r="E91" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2651,7 +2646,7 @@
         <v>133</v>
       </c>
       <c r="E93" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2668,7 +2663,7 @@
         <v>168</v>
       </c>
       <c r="E94" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2685,7 +2680,7 @@
         <v>169</v>
       </c>
       <c r="E95" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2719,7 +2714,7 @@
         <v>171</v>
       </c>
       <c r="E97" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2736,7 +2731,7 @@
         <v>140</v>
       </c>
       <c r="E98" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2787,7 +2782,7 @@
         <v>173</v>
       </c>
       <c r="E101" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
